--- a/1.머신러닝/03.평가척도/모델선택_알고리즘.xlsx
+++ b/1.머신러닝/03.평가척도/모델선택_알고리즘.xlsx
@@ -507,13 +507,13 @@
         <v>0.962</v>
       </c>
       <c r="C5" s="3">
-        <v>3788.168</v>
+        <v>3541.04</v>
       </c>
       <c r="D5" s="3">
-        <v>28.041</v>
+        <v>37.95</v>
       </c>
       <c r="E5" s="3">
-        <v>61.548</v>
+        <v>59.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
